--- a/data/trans_dic/P05B_R-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P05B_R-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01891696893670843</v>
+        <v>0.01765776921530207</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.01542318019216959</v>
+        <v>0.01559454876310163</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.004773686513210081</v>
+        <v>0.004749987534627941</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.009955954036301626</v>
+        <v>0.009714048695998498</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02652567205646469</v>
+        <v>0.02660801846394603</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.002801282685958212</v>
+        <v>0.00281891143220349</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.002798676820853425</v>
+        <v>0.002831175065964872</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.006956037284684929</v>
+        <v>0.007302108656362482</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.02671574115324505</v>
+        <v>0.02634076161551725</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.01248974494071596</v>
+        <v>0.01161708060636102</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.005373908787863192</v>
+        <v>0.005289035467622916</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.01041824933311022</v>
+        <v>0.01079186916463562</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.05220682171169174</v>
+        <v>0.05047714587079826</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.05230549946469592</v>
+        <v>0.05306772919215074</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.03121618552948219</v>
+        <v>0.032049839830478</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.04113451194287013</v>
+        <v>0.04256769814180713</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.07421239389147863</v>
+        <v>0.07641300605249332</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.02654607126249152</v>
+        <v>0.02577728673214873</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.02622757811735578</v>
+        <v>0.02589093065374122</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02807816753916431</v>
+        <v>0.03132822977008179</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.05392525306625572</v>
+        <v>0.052257817770897</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.03341251282523092</v>
+        <v>0.0328366921263758</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.02388358467596874</v>
+        <v>0.02347693999134835</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02848169073950584</v>
+        <v>0.02847343514267861</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01505779198610031</v>
+        <v>0.01772361981542852</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007877060680807334</v>
+        <v>0.007729570694821256</v>
       </c>
       <c r="E8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.001201858801368391</v>
+        <v>0.001229332396540454</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.0198043815826937</v>
+        <v>0.02007198073691751</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.008684409253723229</v>
+        <v>0.008851369456744505</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.008320797646603113</v>
+        <v>0.008548089361670614</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.007802369389125154</v>
+        <v>0.008071006313545024</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.02290673502254721</v>
+        <v>0.02147095046104067</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01111048111268689</v>
+        <v>0.01150060912208313</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.005534121124220695</v>
+        <v>0.005864054298593762</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.005678253353862197</v>
+        <v>0.006040034639669198</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05699150838960788</v>
+        <v>0.06096351301855669</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.04112352634897918</v>
+        <v>0.04401360822033487</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02099418746861196</v>
+        <v>0.02095727992773061</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.01509215367171186</v>
+        <v>0.01496282964541391</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.05966689418230468</v>
+        <v>0.05958234889622318</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.04147462820691915</v>
+        <v>0.04071039147441227</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.03963702878133295</v>
+        <v>0.03919208158067281</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.03537368703587404</v>
+        <v>0.03253979214606788</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.05133190517502835</v>
+        <v>0.05047753419070811</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03297173208534535</v>
+        <v>0.03476926297442623</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.02310647194410802</v>
+        <v>0.02319827310960258</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.01959560259632976</v>
+        <v>0.02049876823996812</v>
       </c>
     </row>
     <row r="10">
@@ -980,38 +980,38 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.01187224418635621</v>
+        <v>0.01075256827928161</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.003123566311683085</v>
+        <v>0.003166524651446323</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.001528361710106487</v>
+        <v>0.001639571928440486</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.003374318488058067</v>
+        <v>0.003661181865179649</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03177681692093003</v>
+        <v>0.03150811750241377</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.003797723821113484</v>
+        <v>0.003909934490847447</v>
       </c>
       <c r="I11" s="5" t="inlineStr"/>
       <c r="J11" s="5" t="n">
-        <v>0.002299028406152825</v>
+        <v>0.002258360053878441</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01956755682665268</v>
+        <v>0.01986860461299349</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.004487644043940807</v>
+        <v>0.00471880015686897</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.001161103323788105</v>
+        <v>0.001158847925934841</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.004587864038164768</v>
+        <v>0.004440478549890788</v>
       </c>
     </row>
     <row r="12">
@@ -1022,38 +1022,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.03506751775707929</v>
+        <v>0.03595534210083672</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.01858632915615016</v>
+        <v>0.01895893048141022</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.01902663769243906</v>
+        <v>0.01916698159835642</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02348439212581291</v>
+        <v>0.02371639864302931</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1063730540222849</v>
+        <v>0.1063820147564954</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03304722854320713</v>
+        <v>0.0337013845325374</v>
       </c>
       <c r="I12" s="5" t="inlineStr"/>
       <c r="J12" s="5" t="n">
-        <v>0.02571161913516901</v>
+        <v>0.02679992986137478</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.0448752729723052</v>
+        <v>0.04405572363223959</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.0176986423539997</v>
+        <v>0.01843949777559089</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01543225169419039</v>
+        <v>0.01518029179631977</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.01996442444877054</v>
+        <v>0.01938137762529798</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>0.02136672206914211</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.008724835018294849</v>
+        <v>0.00872483501829485</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.04652219355287911</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02321920453753622</v>
+        <v>0.0244582995649648</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01083609154260498</v>
+        <v>0.01109356457870458</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01393762324620547</v>
+        <v>0.01378023848221038</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.004496932321606032</v>
+        <v>0.004416333573497856</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0325697194586476</v>
+        <v>0.0316032901088545</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.01460960928992555</v>
+        <v>0.01496040240721283</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.01668087774067674</v>
+        <v>0.01671418116248541</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.00669227901748727</v>
+        <v>0.0069624533188865</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.02976275439069843</v>
+        <v>0.02889905062884036</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.01469299954360122</v>
+        <v>0.01472391768045298</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.01711312451339344</v>
+        <v>0.01733874579914391</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.00679090686809205</v>
+        <v>0.00663902219883841</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04531341155599972</v>
+        <v>0.04608232494662517</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02823034927893495</v>
+        <v>0.0279880360453566</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.03094426654820782</v>
+        <v>0.03093918881667398</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.01636055533748262</v>
+        <v>0.01621196778511123</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.06325343570035062</v>
+        <v>0.0634346103205313</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.03911912155583396</v>
+        <v>0.03878762148782833</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.04052021631402154</v>
+        <v>0.0406627253532336</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02037845319358915</v>
+        <v>0.02022890743864705</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.04784282302996876</v>
+        <v>0.04793429345419585</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02854221060869568</v>
+        <v>0.02796634758894134</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.03009755060920052</v>
+        <v>0.03097276353953319</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.01537395700906371</v>
+        <v>0.0150888799909621</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>0.01572202538618622</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.00931532402091358</v>
+        <v>0.009315324020913581</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.05043566876488485</v>
@@ -1237,7 +1237,7 @@
         <v>0.01719185179615033</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.01237098383187516</v>
+        <v>0.01237098383187515</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.009954454808649987</v>
+        <v>0.01016970653958628</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.003790239363835417</v>
+        <v>0.003887616428956706</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.007647741007754915</v>
+        <v>0.00714729113636244</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.003924674116332172</v>
+        <v>0.003349753501590176</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.03404326164804432</v>
+        <v>0.03473330012003101</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.00381135042579818</v>
+        <v>0.003732864885384005</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.0102020870557398</v>
+        <v>0.01009415050355651</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.009009684783780019</v>
+        <v>0.009206351427804784</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.02790853581363272</v>
+        <v>0.02722647403029948</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.005481670078398115</v>
+        <v>0.005266990737959352</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01089991108554297</v>
+        <v>0.0111943013200443</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.008296652704551266</v>
+        <v>0.00809249363765111</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.0391848338959641</v>
+        <v>0.03882220171736435</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02501551199442374</v>
+        <v>0.02365507396880669</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.02960908103596779</v>
+        <v>0.03114535123940156</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.02128055526991953</v>
+        <v>0.02104372735470317</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.07299454906669656</v>
+        <v>0.07089168988409084</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.02077424310507811</v>
+        <v>0.02241491236994101</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.03051779486235499</v>
+        <v>0.03060048098623085</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02197078884067289</v>
+        <v>0.02256597638192121</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.05434610137664589</v>
+        <v>0.0518495024440817</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.01704420416262395</v>
+        <v>0.01828396065645299</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.024980476057244</v>
+        <v>0.02647567548980187</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.01913379786307193</v>
+        <v>0.01827382913430565</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>0.02791013087651558</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.006163628168590993</v>
+        <v>0.006163628168590994</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.04407504358076804</v>
@@ -1373,7 +1373,7 @@
         <v>0.02281508510693557</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.004809444302589942</v>
+        <v>0.004809444302589941</v>
       </c>
     </row>
     <row r="20">
@@ -1384,38 +1384,38 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01509197621461213</v>
+        <v>0.01577473160983183</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.007212853520633769</v>
+        <v>0.007120611484048988</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="n">
-        <v>0.03667056177672848</v>
+        <v>0.03625651373783962</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.009641244490797913</v>
+        <v>0.009802817680731208</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01784809247674549</v>
+        <v>0.01825195563180326</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.002948653048597021</v>
+        <v>0.002717213922900728</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.03531110721452705</v>
+        <v>0.03476427181636788</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.01131922211863038</v>
+        <v>0.010504941055856</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.01506376622702288</v>
+        <v>0.01562734454407676</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.002405087357579128</v>
+        <v>0.002057272959724782</v>
       </c>
     </row>
     <row r="21">
@@ -1426,38 +1426,38 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.0591303640099973</v>
+        <v>0.05913292151816643</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.04023963396399789</v>
+        <v>0.03901157982641527</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01858547348444682</v>
+        <v>0.01830088588208669</v>
       </c>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="n">
-        <v>0.05993838215918735</v>
+        <v>0.05883584398605978</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.0247262481719174</v>
+        <v>0.02620355839311693</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.04023685834406197</v>
+        <v>0.04036981464079249</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.01115755700927494</v>
+        <v>0.01132401290237779</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.05660987374266789</v>
+        <v>0.05483597688583004</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.0255855303962193</v>
+        <v>0.02516748486323003</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.03299362799636312</v>
+        <v>0.03412419870747887</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.008621886933746208</v>
+        <v>0.008830027818411704</v>
       </c>
     </row>
     <row r="22">
@@ -1481,7 +1481,7 @@
         <v>0.01362863632105376</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>0.00980407256776498</v>
+        <v>0.009804072567764981</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>0.04687746938634973</v>
@@ -1516,40 +1516,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.02336026718401436</v>
+        <v>0.02422644469484633</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01266680810219204</v>
+        <v>0.01276612134040459</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.01002497618319376</v>
+        <v>0.009831486457325298</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.006898767983783752</v>
+        <v>0.00691627660212738</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.03986609847849976</v>
+        <v>0.04011007178607896</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.01236099592261232</v>
+        <v>0.01222868287267056</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.01699558793587673</v>
+        <v>0.01698962959168297</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.009305864847024607</v>
+        <v>0.009256768826243216</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.03394193801376586</v>
+        <v>0.03388858166696852</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.01365240643679675</v>
+        <v>0.01364124883484342</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.01440841663699681</v>
+        <v>0.01436666043453556</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.008992066071028764</v>
+        <v>0.008660755485616118</v>
       </c>
     </row>
     <row r="24">
@@ -1560,40 +1560,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03591178545281461</v>
+        <v>0.03633272933968023</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.02190462173970923</v>
+        <v>0.02195840357913899</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01851890449169152</v>
+        <v>0.01816318064464402</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.0141880938533049</v>
+        <v>0.01413890251712162</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.0547594050332041</v>
+        <v>0.0546014558738191</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.02144365070159722</v>
+        <v>0.02156262419895456</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.02692720428920305</v>
+        <v>0.02741998637261515</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.01555335346781063</v>
+        <v>0.01554624057101968</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.04332793341898891</v>
+        <v>0.04354526202472388</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.02001549643203289</v>
+        <v>0.01985369105165615</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.02137172818167295</v>
+        <v>0.0211723921584336</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.01353740947913083</v>
+        <v>0.01347477720131748</v>
       </c>
     </row>
     <row r="25">
@@ -1866,40 +1866,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8918</v>
+        <v>8324</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6699</v>
+        <v>6773</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2048</v>
+        <v>2038</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>5468</v>
+        <v>5335</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>8135</v>
+        <v>8160</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>881</v>
+        <v>886</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>966</v>
+        <v>977</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>3375</v>
+        <v>3543</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>20788</v>
+        <v>20496</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>9352</v>
+        <v>8699</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>4161</v>
+        <v>4095</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>10776</v>
+        <v>11162</v>
       </c>
     </row>
     <row r="7">
@@ -1910,40 +1910,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>24611</v>
+        <v>23796</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>22718</v>
+        <v>23050</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>13395</v>
+        <v>13752</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>22590</v>
+        <v>23377</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>22759</v>
+        <v>23434</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>8348</v>
+        <v>8106</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>9055</v>
+        <v>8938</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>13622</v>
+        <v>15199</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>41959</v>
+        <v>40662</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>25019</v>
+        <v>24588</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>18494</v>
+        <v>18179</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>29459</v>
+        <v>29451</v>
       </c>
     </row>
     <row r="8">
@@ -2046,40 +2046,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>5525</v>
+        <v>6503</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>3273</v>
+        <v>3212</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>580</v>
+        <v>593</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>7365</v>
+        <v>7464</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2935</v>
+        <v>2992</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>3098</v>
+        <v>3182</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3298</v>
+        <v>3412</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>16923</v>
+        <v>15863</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>8373</v>
+        <v>8667</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>4142</v>
+        <v>4389</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>5140</v>
+        <v>5467</v>
       </c>
     </row>
     <row r="11">
@@ -2090,40 +2090,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>20912</v>
+        <v>22370</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>17090</v>
+        <v>18291</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>7899</v>
+        <v>7885</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>7282</v>
+        <v>7220</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>22188</v>
+        <v>22157</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>14019</v>
+        <v>13761</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>14756</v>
+        <v>14590</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>14952</v>
+        <v>13754</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>37924</v>
+        <v>37293</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>24847</v>
+        <v>26201</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>17295</v>
+        <v>17364</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>17738</v>
+        <v>18556</v>
       </c>
     </row>
     <row r="12">
@@ -2226,38 +2226,38 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>6439</v>
+        <v>5832</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1960</v>
+        <v>1987</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>796</v>
+        <v>854</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1591</v>
+        <v>1727</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>5332</v>
+        <v>5286</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>972</v>
+        <v>1001</v>
       </c>
       <c r="I14" s="6" t="inlineStr"/>
       <c r="J14" s="6" t="n">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>13896</v>
+        <v>14110</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>3964</v>
+        <v>4169</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>3019</v>
+        <v>2922</v>
       </c>
     </row>
     <row r="15">
@@ -2268,38 +2268,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>19020</v>
+        <v>19502</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>11661</v>
+        <v>11895</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9910</v>
+        <v>9983</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>11076</v>
+        <v>11185</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>17847</v>
+        <v>17849</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>8460</v>
+        <v>8628</v>
       </c>
       <c r="I15" s="6" t="inlineStr"/>
       <c r="J15" s="6" t="n">
-        <v>4794</v>
+        <v>4997</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>31869</v>
+        <v>31287</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>15635</v>
+        <v>16289</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>10601</v>
+        <v>10428</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>13138</v>
+        <v>12754</v>
       </c>
     </row>
     <row r="16">
@@ -2402,40 +2402,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>28712</v>
+        <v>30244</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>12526</v>
+        <v>12824</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>15943</v>
+        <v>15763</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>5079</v>
+        <v>4988</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>23264</v>
+        <v>22574</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>11186</v>
+        <v>11454</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>13710</v>
+        <v>13737</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>5760</v>
+        <v>5992</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>58063</v>
+        <v>56378</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>28234</v>
+        <v>28294</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>33641</v>
+        <v>34084</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>13514</v>
+        <v>13212</v>
       </c>
     </row>
     <row r="19">
@@ -2446,40 +2446,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>56033</v>
+        <v>56984</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>32634</v>
+        <v>32354</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>35397</v>
+        <v>35391</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>18477</v>
+        <v>18309</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>45181</v>
+        <v>45310</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>29951</v>
+        <v>29697</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>33303</v>
+        <v>33420</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>17539</v>
+        <v>17410</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>93334</v>
+        <v>93513</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>54847</v>
+        <v>53741</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>59165</v>
+        <v>60886</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>30595</v>
+        <v>30027</v>
       </c>
     </row>
     <row r="20">
@@ -2582,40 +2582,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>3490</v>
+        <v>3565</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1935</v>
+        <v>1985</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>4747</v>
+        <v>4436</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2223</v>
+        <v>1897</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>19307</v>
+        <v>19698</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>2890</v>
+        <v>2831</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>7521</v>
+        <v>7441</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>7466</v>
+        <v>7629</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>25611</v>
+        <v>24985</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>6956</v>
+        <v>6683</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>14801</v>
+        <v>15201</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>11574</v>
+        <v>11289</v>
       </c>
     </row>
     <row r="23">
@@ -2626,40 +2626,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>13736</v>
+        <v>13609</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>12773</v>
+        <v>12078</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>18379</v>
+        <v>19332</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>12051</v>
+        <v>11917</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>41397</v>
+        <v>40205</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>15753</v>
+        <v>16997</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>22498</v>
+        <v>22559</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>18207</v>
+        <v>18700</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>49872</v>
+        <v>47581</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>21627</v>
+        <v>23200</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>33921</v>
+        <v>35952</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>26691</v>
+        <v>25492</v>
       </c>
     </row>
     <row r="24">
@@ -2762,38 +2762,38 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>4500</v>
+        <v>4704</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1905</v>
+        <v>1880</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="n">
-        <v>45793</v>
+        <v>45276</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>10615</v>
+        <v>10793</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>19184</v>
+        <v>19618</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>2484</v>
+        <v>2289</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>54625</v>
+        <v>53779</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>15451</v>
+        <v>14340</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>20503</v>
+        <v>21270</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>2597</v>
+        <v>2221</v>
       </c>
     </row>
     <row r="27">
@@ -2807,35 +2807,35 @@
         <v>17633</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>10625</v>
+        <v>10301</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>5320</v>
+        <v>5239</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="n">
-        <v>74849</v>
+        <v>73472</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>27224</v>
+        <v>28850</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>43249</v>
+        <v>43391</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>9401</v>
+        <v>9541</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>87573</v>
+        <v>84829</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>34926</v>
+        <v>34355</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>44907</v>
+        <v>46446</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>9309</v>
+        <v>9534</v>
       </c>
     </row>
     <row r="28">
@@ -2938,40 +2938,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>76296</v>
+        <v>79125</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>43168</v>
+        <v>43506</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>33854</v>
+        <v>33201</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>23706</v>
+        <v>23766</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>134608</v>
+        <v>135432</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>43676</v>
+        <v>43209</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>59783</v>
+        <v>59762</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>33744</v>
+        <v>33566</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>225462</v>
+        <v>225107</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>94766</v>
+        <v>94689</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>99340</v>
+        <v>99052</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>63505</v>
+        <v>61165</v>
       </c>
     </row>
     <row r="31">
@@ -2982,40 +2982,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>117290</v>
+        <v>118665</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>74649</v>
+        <v>74833</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>62538</v>
+        <v>61337</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>48753</v>
+        <v>48584</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>184895</v>
+        <v>184362</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>75769</v>
+        <v>76189</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>94718</v>
+        <v>96452</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>56399</v>
+        <v>56373</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>287809</v>
+        <v>289252</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>138934</v>
+        <v>137811</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>147349</v>
+        <v>145975</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>95606</v>
+        <v>95164</v>
       </c>
     </row>
     <row r="32">
